--- a/Otros/AE-2021-BUSQUEDA-CO19 (Respuestas).xlsx
+++ b/Otros/AE-2021-BUSQUEDA-CO19 (Respuestas).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristhian A. Torres\Documents\UNIAJC\Semestre 10\Analisis de entorno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\Anteproyecto\Uniajc_Tesis_OTFV\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA95102-4487-4408-A2A3-C649B4AD49FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="5835"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -481,7 +482,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -757,31 +758,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="85.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="57.28515625" customWidth="1"/>
-    <col min="12" max="12" width="69.140625" customWidth="1"/>
-    <col min="13" max="18" width="21.5703125" customWidth="1"/>
+    <col min="1" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="85.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" customWidth="1"/>
+    <col min="12" max="12" width="69.109375" customWidth="1"/>
+    <col min="13" max="18" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44270.808816284727</v>
       </c>
@@ -848,13 +849,13 @@
         <v>16</v>
       </c>
       <c r="J2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44270.811009965277</v>
       </c>
@@ -892,7 +893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44270.820488310186</v>
       </c>
@@ -927,7 +928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44270.826004456016</v>
       </c>
@@ -956,7 +957,7 @@
         <v>53</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>54</v>
@@ -965,7 +966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44270.828174907409</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44270.832071446755</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44270.83274327546</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44270.83776278935</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44270.832063495371</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44270.832902395836</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44270.834997245373</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44270.819263263889</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44270.81864917824</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44270.838476192133</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44270.851021736111</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44270.82026158565</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44270.841821354166</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44270.832083472225</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44270.838316666668</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44270.845475960647</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44270.847588807868</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44270.850071504625</v>
       </c>
@@ -1641,78 +1642,78 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState ref="A2:L23">
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L23">
       <sortCondition ref="J1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="K3" r:id="rId4"/>
-    <hyperlink ref="L3" r:id="rId5"/>
-    <hyperlink ref="F14" r:id="rId6"/>
-    <hyperlink ref="I14" r:id="rId7"/>
-    <hyperlink ref="K14" r:id="rId8"/>
-    <hyperlink ref="L14" r:id="rId9"/>
-    <hyperlink ref="F13" r:id="rId10"/>
-    <hyperlink ref="I13" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="L13" r:id="rId13"/>
-    <hyperlink ref="F17" r:id="rId14"/>
-    <hyperlink ref="I17" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="L17" r:id="rId17"/>
-    <hyperlink ref="I4" r:id="rId18"/>
-    <hyperlink ref="K4" r:id="rId19"/>
-    <hyperlink ref="I5" r:id="rId20"/>
-    <hyperlink ref="K5" r:id="rId21"/>
-    <hyperlink ref="L5" r:id="rId22"/>
-    <hyperlink ref="I6" r:id="rId23"/>
-    <hyperlink ref="L6" r:id="rId24"/>
-    <hyperlink ref="I10" r:id="rId25"/>
-    <hyperlink ref="K10" r:id="rId26"/>
-    <hyperlink ref="L10" r:id="rId27"/>
-    <hyperlink ref="F7" r:id="rId28"/>
-    <hyperlink ref="I7" r:id="rId29"/>
-    <hyperlink ref="K7" r:id="rId30"/>
-    <hyperlink ref="L7" r:id="rId31"/>
-    <hyperlink ref="I19" r:id="rId32"/>
-    <hyperlink ref="K19" r:id="rId33"/>
-    <hyperlink ref="L19" r:id="rId34"/>
-    <hyperlink ref="I8" r:id="rId35"/>
-    <hyperlink ref="K8" r:id="rId36"/>
-    <hyperlink ref="L8" r:id="rId37"/>
-    <hyperlink ref="F18" r:id="rId38"/>
-    <hyperlink ref="I18" r:id="rId39"/>
-    <hyperlink ref="K18" r:id="rId40"/>
-    <hyperlink ref="L18" r:id="rId41"/>
-    <hyperlink ref="I11" r:id="rId42"/>
-    <hyperlink ref="L11" r:id="rId43"/>
-    <hyperlink ref="I12" r:id="rId44"/>
-    <hyperlink ref="L12" r:id="rId45"/>
-    <hyperlink ref="I9" r:id="rId46"/>
-    <hyperlink ref="K9" r:id="rId47"/>
-    <hyperlink ref="L9" r:id="rId48"/>
-    <hyperlink ref="F20" r:id="rId49"/>
-    <hyperlink ref="L20" r:id="rId50"/>
-    <hyperlink ref="I15" r:id="rId51"/>
-    <hyperlink ref="K15" r:id="rId52"/>
-    <hyperlink ref="L15" r:id="rId53"/>
-    <hyperlink ref="F21" r:id="rId54"/>
-    <hyperlink ref="I21" r:id="rId55"/>
-    <hyperlink ref="K21" r:id="rId56"/>
-    <hyperlink ref="L21" r:id="rId57"/>
-    <hyperlink ref="K22" r:id="rId58"/>
-    <hyperlink ref="L22" r:id="rId59"/>
-    <hyperlink ref="F23" r:id="rId60"/>
-    <hyperlink ref="I23" r:id="rId61"/>
-    <hyperlink ref="K23" r:id="rId62"/>
-    <hyperlink ref="L23" r:id="rId63"/>
-    <hyperlink ref="I16" r:id="rId64"/>
-    <hyperlink ref="K16" r:id="rId65"/>
-    <hyperlink ref="L16" r:id="rId66"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L5" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L7" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I8" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L8" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F18" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K18" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L18" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I11" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I12" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L12" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L9" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L20" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K15" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F21" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I21" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K21" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L21" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L22" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I23" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K23" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L23" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I16" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K16" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L16" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId67"/>
